--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -132,7 +132,8 @@
   <si>
     <t xml:space="preserve">- Scripts vs. Notebooks
 - Take Chances, Make Mistakes, and Get Messy! Don’t be afraid to mess with someone else’s code!
-&lt;div class="tenor-gif-embed" data-postid="5918600078252353803" data-share-method="host" data-aspect-ratio="1.46296" data-width="100%"&gt;&lt;a href="https://tenor.com/view/ms-frizzle-magic-school-bus-gif-5918600078252353803"&gt;Ms Frizzle Magic School Bus GIF&lt;/a&gt;from &lt;a href="https://tenor.com/search/ms+frizzle-gifs"&gt;Ms Frizzle GIFs&lt;/a&gt;&lt;/div&gt; &lt;script type="text/javascript" async src="https://tenor.com/embed.js"&gt;&lt;/script&gt;</t>
+&lt;div class="tenor-gif-embed" data-postid="5918600078252353803" data-share-method="host" data-aspect-ratio="1.46296" data-width="100%"&gt;&lt;a href="https://tenor.com/view/ms-frizzle-magic-school-bus-gif-5918600078252353803"&gt;Ms Frizzle Magic School Bus GIF&lt;/a&gt;from &lt;a href="https://tenor.com/search/ms+frizzle-gifs"&gt;Ms Frizzle GIFs&lt;/a&gt;&lt;/div&gt; &lt;script type="text/javascript" async src="https://tenor.com/embed.js"&gt;&lt;/script&gt;f
+- [Slides](../slides/02-scripts-notebooks.qmd)</t>
   </si>
   <si>
     <r>
@@ -1018,7 +1019,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1055,7 +1056,7 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1082,7 +1083,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="68.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
         <v>2</v>
       </c>
@@ -1249,7 +1250,7 @@
       <c r="H9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="I9" s="0" t="s">
+      <c r="I9" s="1" t="s">
         <v>49</v>
       </c>
     </row>
@@ -1433,7 +1434,7 @@
       <c r="C17" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="1" t="s">
         <v>89</v>
       </c>
     </row>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -128,12 +128,6 @@
   </si>
   <si>
     <t xml:space="preserve">- [ ] Do the examples in the textbook chapter on Scripts and Notebooks.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Scripts vs. Notebooks
-- Take Chances, Make Mistakes, and Get Messy! Don’t be afraid to mess with someone else’s code!
-&lt;div class="tenor-gif-embed" data-postid="5918600078252353803" data-share-method="host" data-aspect-ratio="1.46296" data-width="100%"&gt;&lt;a href="https://tenor.com/view/ms-frizzle-magic-school-bus-gif-5918600078252353803"&gt;Ms Frizzle Magic School Bus GIF&lt;/a&gt;from &lt;a href="https://tenor.com/search/ms+frizzle-gifs"&gt;Ms Frizzle GIFs&lt;/a&gt;&lt;/div&gt; &lt;script type="text/javascript" async src="https://tenor.com/embed.js"&gt;&lt;/script&gt;f
-- [Slides](../slides/02-scripts-notebooks.qmd)</t>
   </si>
   <si>
     <r>
@@ -884,7 +878,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -912,6 +906,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -970,7 +970,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -988,6 +988,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1102,11 +1106,9 @@
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1117,22 +1119,22 @@
         <v>45693</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1143,22 +1145,22 @@
         <v>45700</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="H5" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1169,22 +1171,22 @@
         <v>45707</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="E6" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1195,19 +1197,19 @@
         <v>45714</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1218,19 +1220,19 @@
         <v>45721</v>
       </c>
       <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="H8" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1241,17 +1243,17 @@
         <v>45728</v>
       </c>
       <c r="C9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="I9" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1262,22 +1264,22 @@
         <v>45742</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="F10" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1288,19 +1290,19 @@
         <v>45749</v>
       </c>
       <c r="C11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="E11" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="G11" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="H11" s="6" t="s">
         <v>59</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1311,22 +1313,22 @@
         <v>45756</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="F12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="H12" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1337,22 +1339,22 @@
         <v>45763</v>
       </c>
       <c r="C13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="F13" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1363,22 +1365,22 @@
         <v>45770</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="E14" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="F14" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="H14" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1389,22 +1391,22 @@
         <v>45777</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="E15" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="F15" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1415,13 +1417,13 @@
         <v>45784</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1432,19 +1434,18 @@
         <v>45791</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>89</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G3" r:id="rId1" display="- Scripts vs. Notebooks&#10;- Take Chances, Make Mistakes, and Get Messy! Don’t be afraid to mess with someone else’s code!&#10;&lt;div class=&quot;tenor-gif-embed&quot; data-postid=&quot;5918600078252353803&quot; data-share-method=&quot;host&quot; data-aspect-ratio=&quot;1.46296&quot; data-width=&quot;100%&quot;&gt;&lt;a href=&quot;https://tenor.com/view/ms-frizzle-magic-school-bus-gif-5918600078252353803&quot;&gt;Ms Frizzle Magic School Bus GIF&lt;/a&gt;from &lt;a href=&quot;https://tenor.com/search/ms+frizzle-gifs&quot;&gt;Ms Frizzle GIFs&lt;/a&gt;&lt;/div&gt; &lt;script type=&quot;text/javascript&quot; async src=&quot;https://tenor.com/embed.js&quot;&gt;&lt;/script&gt;"/>
-    <hyperlink ref="D4" r:id="rId2" display="- [ ] [Introduction to Programming](https://srvanderplas.github.io/stat-computing-r-python/part-gen-prog/00-intro.html)&#10;"/>
-    <hyperlink ref="D5" r:id="rId3" display="- [ ] [Variables and Basic Data Types](https://srvanderplas.github.io/stat-computing-r-python/part-gen-prog/01-basic-var-types.html) &#10;- [ ] [Using Functions and Libraries](https://srvanderplas.github.io/stat-computing-r-python/part-gen-prog/02-prog-functions.html)"/>
-    <hyperlink ref="D6" r:id="rId4" display="- [ ] [Data Structures](https://srvanderplas.github.io/stat-computing-r-python/part-gen-prog/03-data-struct.html)&#10;"/>
-    <hyperlink ref="D14" r:id="rId5" display="- [ ] [Reshaping Data](https://srvanderplas.github.io/stat-computing-r-python/part-wrangling/05-data-reshape.html)"/>
+    <hyperlink ref="D4" r:id="rId1" display="- [ ] [Introduction to Programming](https://srvanderplas.github.io/stat-computing-r-python/part-gen-prog/00-intro.html)&#10;"/>
+    <hyperlink ref="D5" r:id="rId2" display="- [ ] [Variables and Basic Data Types](https://srvanderplas.github.io/stat-computing-r-python/part-gen-prog/01-basic-var-types.html) &#10;- [ ] [Using Functions and Libraries](https://srvanderplas.github.io/stat-computing-r-python/part-gen-prog/02-prog-functions.html)"/>
+    <hyperlink ref="D6" r:id="rId3" display="- [ ] [Data Structures](https://srvanderplas.github.io/stat-computing-r-python/part-gen-prog/03-data-struct.html)&#10;"/>
+    <hyperlink ref="D14" r:id="rId4" display="- [ ] [Reshaping Data](https://srvanderplas.github.io/stat-computing-r-python/part-wrangling/05-data-reshape.html)"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -128,6 +128,50 @@
   </si>
   <si>
     <t xml:space="preserve">- [ ] Do the examples in the textbook chapter on Scripts and Notebooks.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [ ] [Slides]</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">../slides/02-scripts-notebooks.qmd</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -908,10 +952,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -970,7 +1016,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -988,10 +1034,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1022,7 +1064,7 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
@@ -1106,9 +1148,11 @@
       <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="5"/>
+      <c r="G3" s="4" t="s">
+        <v>18</v>
+      </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1119,22 +1163,22 @@
         <v>45693</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1145,22 +1189,22 @@
         <v>45700</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1171,22 +1215,22 @@
         <v>45707</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1197,19 +1241,19 @@
         <v>45714</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1220,19 +1264,19 @@
         <v>45721</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="6" t="s">
         <v>42</v>
       </c>
+      <c r="E8" s="5" t="s">
+        <v>43</v>
+      </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,17 +1287,17 @@
         <v>45728</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E9" s="6"/>
+        <v>46</v>
+      </c>
+      <c r="E9" s="5"/>
       <c r="F9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,22 +1308,22 @@
         <v>45742</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E10" s="6" t="s">
         <v>51</v>
       </c>
+      <c r="E10" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="F10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1290,19 +1334,19 @@
         <v>45749</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="H11" s="6" t="s">
         <v>59</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1313,22 +1357,22 @@
         <v>45756</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="E12" s="5" t="s">
+        <v>63</v>
+      </c>
       <c r="F12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1339,22 +1383,22 @@
         <v>45763</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E13" s="6" t="s">
         <v>68</v>
       </c>
+      <c r="E13" s="5" t="s">
+        <v>69</v>
+      </c>
       <c r="F13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1365,22 +1409,22 @@
         <v>45770</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="6" t="s">
         <v>74</v>
       </c>
+      <c r="E14" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="F14" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1391,22 +1435,22 @@
         <v>45777</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="E15" s="6" t="s">
         <v>80</v>
       </c>
+      <c r="E15" s="5" t="s">
+        <v>81</v>
+      </c>
       <c r="F15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1417,13 +1461,13 @@
         <v>45784</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,10 +1478,10 @@
         <v>45791</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -227,7 +227,7 @@
     <t xml:space="preserve">- [ ] Download and read through the homework assignment</t>
   </si>
   <si>
-    <t xml:space="preserve">- Cues to look for to figure out how code is being run</t>
+    <t xml:space="preserve">- [Cues to look for in Rstudio](../slides/03-intro.qmd)</t>
   </si>
   <si>
     <r>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
+      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -280,7 +280,7 @@
     <t xml:space="preserve">- [ ] Week 4 Reading Quiz</t>
   </si>
   <si>
-    <t xml:space="preserve">- Data Types, Variables, and  Common Mistakes
+    <t xml:space="preserve">- [Data Types, Variables, and  Common Mistakes](../slides/04-building-blocks.qmd)
 - Debugging strategies</t>
   </si>
   <si>
@@ -1064,8 +1064,8 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G4" activeCellId="0" sqref="G4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1181,7 +1181,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="35.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="n">
         <v>4</v>
       </c>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -387,6 +387,10 @@
   </si>
   <si>
     <t xml:space="preserve">- [ ] Read [Homework 5 tips for success](../homework/05-tips-for-success.qmd) and make sure you understand local vs. global file paths</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- For loops and if statements 
+- [Slides](../slides/06-if-statements.qmd)</t>
   </si>
   <si>
     <r>
@@ -1065,7 +1069,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1252,8 +1256,11 @@
       <c r="F7" s="1" t="s">
         <v>39</v>
       </c>
+      <c r="G7" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1264,19 +1271,19 @@
         <v>45721</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,17 +1294,17 @@
         <v>45728</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1308,22 +1315,22 @@
         <v>45742</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1334,19 +1341,19 @@
         <v>45749</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1357,22 +1364,22 @@
         <v>45756</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1383,22 +1390,22 @@
         <v>45763</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1409,22 +1416,22 @@
         <v>45770</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1435,22 +1442,22 @@
         <v>45777</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1461,13 +1468,13 @@
         <v>45784</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1478,10 +1485,10 @@
         <v>45791</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -509,6 +509,10 @@
       <t xml:space="preserve"> half of the semester. 
 - [ ] Homework resubmission deadline is next week! Be sure to finish up any homework you’d like to resubmit. </t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">- [Slides](../slides/07-functions.qmd)
+- [Exam Topics](../slides/08-exam-review.qmd)</t>
   </si>
   <si>
     <r>
@@ -1068,8 +1072,8 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1282,8 +1286,11 @@
       <c r="F8" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="G8" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="H8" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1294,17 +1301,17 @@
         <v>45728</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1315,22 +1322,22 @@
         <v>45742</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,19 +1348,19 @@
         <v>45749</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1364,22 +1371,22 @@
         <v>45756</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1390,22 +1397,22 @@
         <v>45763</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1416,22 +1423,22 @@
         <v>45770</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1442,22 +1449,22 @@
         <v>45777</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1468,13 +1475,13 @@
         <v>45784</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1485,10 +1492,10 @@
         <v>45791</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -558,7 +558,9 @@
     <t xml:space="preserve">Midterm</t>
   </si>
   <si>
-    <t xml:space="preserve">- [ ] Study for your midterm exam!</t>
+    <t xml:space="preserve">- [ ] Study for your midterm exam!
+  - [ ] [Midterm from 2024](../homework/08-practice-midterm.qmd)
+  - [ ] [Sample solutions to 2024 midterm](../homework/08-practice-midterm-key.qmd)</t>
   </si>
   <si>
     <t xml:space="preserve">Enjoy your spring break!</t>
@@ -1072,8 +1074,8 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1304,7 +1306,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="1" t="s">
+      <c r="F9" s="2" t="s">
         <v>49</v>
       </c>
       <c r="H9" s="1" t="s">

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -559,7 +559,9 @@
   </si>
   <si>
     <t xml:space="preserve">- [ ] Study for your midterm exam!
-  - [ ] [Midterm from 2024](../homework/08-practice-midterm.qmd)
+- [Exam Review slides](../slides/08-exam-review.qmd)
+- Exam Review, Monday 1:15 – 2:45, Zoom (link in Canvas) – video posted later (hopefully)
+  - [ ] [Midterm from 2024](../homework/08-practice-midterm.qmd) 
   - [ ] [Sample solutions to 2024 midterm](../homework/08-practice-midterm-key.qmd)</t>
   </si>
   <si>
@@ -1074,7 +1076,7 @@
   </sheetPr>
   <dimension ref="A1:I17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A7" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -1295,7 +1297,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="135.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="n">
         <v>8</v>
       </c>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -683,7 +683,7 @@
 - [ ] Week 10 Reading Quiz</t>
   </si>
   <si>
-    <t xml:space="preserve">- Graphics </t>
+    <t xml:space="preserve">- [Graphics](../slides/09-graphics.qmd)</t>
   </si>
   <si>
     <t xml:space="preserve">- [ ] [Homework 8](../homework/08-graphics.qmd)  (Submitted via Github classroom)</t>
@@ -1077,12 +1077,13 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F9" activeCellId="0" sqref="F9"/>
+      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.84"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.29"/>
@@ -1344,7 +1345,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="n">
         <v>10</v>
       </c>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -738,7 +738,7 @@
     <t xml:space="preserve">- [ ] Make yourself a cheat sheet of which functions to use for different R and python data manipulation tasks. </t>
   </si>
   <si>
-    <t xml:space="preserve">- Data Cleaning Verbs
+    <t xml:space="preserve">- [Data Cleaning Verbs](../slides/10-wrangling.qmd)
 - Thinking through data processing tasks</t>
   </si>
   <si>
@@ -1077,13 +1077,13 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G11" activeCellId="0" sqref="G11"/>
+      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14.84"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="34.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="34.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="34.29"/>
@@ -1368,7 +1368,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="n">
         <v>11</v>
       </c>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -683,7 +683,7 @@
 - [ ] Week 10 Reading Quiz</t>
   </si>
   <si>
-    <t xml:space="preserve">- [Graphics](../slides/09-graphics.qmd)</t>
+    <t xml:space="preserve">- [Graphics](../slides/10-graphics.qmd)</t>
   </si>
   <si>
     <t xml:space="preserve">- [ ] [Homework 8](../homework/08-graphics.qmd)  (Submitted via Github classroom)</t>
@@ -738,7 +738,7 @@
     <t xml:space="preserve">- [ ] Make yourself a cheat sheet of which functions to use for different R and python data manipulation tasks. </t>
   </si>
   <si>
-    <t xml:space="preserve">- [Data Cleaning Verbs](../slides/10-wrangling.qmd)
+    <t xml:space="preserve">- [Data Cleaning Verbs](../slides/11-wrangling.qmd)
 - Thinking through data processing tasks</t>
   </si>
   <si>
@@ -794,7 +794,7 @@
     <t xml:space="preserve">- [ ] Try out each of the different ways to manipulate strings and clean up data</t>
   </si>
   <si>
-    <t xml:space="preserve">- Working with Strings</t>
+    <t xml:space="preserve">- [Working with Strings](../slides/12-strings)</t>
   </si>
   <si>
     <t xml:space="preserve">- [ ] [Homework 10](../homework/10-strings.qmd) (Submitted via Github classroom)</t>
@@ -813,7 +813,8 @@
   </si>
   <si>
     <t xml:space="preserve">- Wide to long and long to wide operations
-- Drawing pictures to help with planning code</t>
+- Drawing pictures to help with planning code
+- [Slides](../slides/13-reshaping.qmd)</t>
   </si>
   <si>
     <t xml:space="preserve">- [ ] [Homework 11](../homework/11-reshape.qmd) (Submitted via Github classroom)</t>
@@ -1077,7 +1078,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G12" activeCellId="0" sqref="G12"/>
+      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1420,7 +1421,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="24.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="n">
         <v>13</v>
       </c>

--- a/course-schedule.xlsx
+++ b/course-schedule.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t xml:space="preserve">Week</t>
   </si>
@@ -869,7 +869,7 @@
     <t xml:space="preserve">- [ ] Find an example of a terrible chart in the media</t>
   </si>
   <si>
-    <t xml:space="preserve">- Bad Chart day!</t>
+    <t xml:space="preserve">- [Bad Chart day!](../slides/14-graphics.qmd)</t>
   </si>
   <si>
     <r>
@@ -919,6 +919,46 @@
   </si>
   <si>
     <t xml:space="preserve">- In-class exam review</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- [ ] [Homework 13](../homework/13-practice-final.qmd) </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Submitted via Github classroom</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Finals</t>
@@ -1078,7 +1118,7 @@
   <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G14" activeCellId="0" sqref="G14"/>
+      <selection pane="topLeft" activeCell="H17" activeCellId="0" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1489,6 +1529,9 @@
       <c r="G16" s="1" t="s">
         <v>89</v>
       </c>
+      <c r="H16" s="1" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="n">
@@ -1498,10 +1541,10 @@
         <v>45791</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
